--- a/data/easy.xlsx
+++ b/data/easy.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -978,29 +978,29 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24小时内处理</t>
+          <t>立刻</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>故障检修</t>
+          <t>改进性检修</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>胡毅</t>
+          <t>刘治国</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>科林新#4机组</t>
+          <t>丰泰#2机组</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1010,32 +1010,32 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>40LAC10CY101</t>
+          <t>20CBQ01GS102</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>处理#4机组汽机4瓦X方向轴承振动值摆动幅度最大至186um的缺陷。</t>
+          <t>更换#2机组热控交流电源切换装置。</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>呼和浩特科林热电厂</t>
+          <t>内蒙古丰泰发电厂</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2018/11/03</t>
+          <t>2018/11/02</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2018/11/04</t>
+          <t>2018/11/05</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>胡毅、梅珂</t>
+          <t>刘治国、胡毅</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>处理#4机组汽机4瓦X方向轴承振动值摆动幅度最大至186um的缺陷。（#4机组汽机12.6米平台）</t>
+          <t>更换#2机组热控交流电源切换装置。(#2机组电子间）</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1076,139 +1076,15 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>不停电</t>
+          <t>停运</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>在此工作</t>
+          <t>禁止操作，有人工作</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">热机票-1$隔离切换操作$1、与#4机组运行人员保持联系。
-热机票-1$记录陈述$2、退#4机组汽机4瓦X方向轴承振动保护。
-热机票-2$记录陈述$1.无。
-</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">误操作造成保护误动、拒动$1 操作人员必须熟知保护装置的工作原理、性能及投退步骤。2 操作人员操作前应对保护装置及相关设备、逻辑回路进行全面、细致的检查，确认无误后，按步骤进行操作。3 夜间值班人员进行操作前，更应提高安全意识，保持清醒状态，可参照规定步骤进行操作。4 屏蔽测点或功能模块时一定要注意模块的原输出值，在释放时要保证模块的原输出值不变。
-触电$1 投退保护电源时，应防止身体触及电源开关及其它设备的带电部分。2 湿手不准投退保护电源。3投退保护电源时，应认真核对所投保护电源是否正确，以免因误投退电源造成触电。4检修、调校时，应随时防止身体触及电源及带电源及带电元器件。5 不准带电拔、插插头和拆、接电源线。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4082</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>立刻</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>改进性检修</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>刘治国</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>丰泰#2机组</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>热控专业</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>20CBQ01GS102</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>更换#2机组热控交流电源切换装置。</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>内蒙古丰泰发电厂</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2018/11/02</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2018/11/05</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>热控计算机</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>2679</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>热力机械工作票</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>刘治国、胡毅</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>更换#2机组热控交流电源切换装置。(#2机组电子间）</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>电气隔离</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>停运</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>禁止操作，有人工作</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
         <is>
           <t xml:space="preserve">热机票-1$隔离切换操作$1、与#2机组运行人员联系。
 热机票-1$记录陈述$2、断#2机组热控交流电源柜UPS电源开关。（热控自理）
@@ -1217,7 +1093,7 @@
 </t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t xml:space="preserve">1、停错电源造成表计无法监视，自动失灵，保护误动$1 停电时，需同运行人员联系。2停电时，严格按照操作票上的规定步骤进行，不能走错间隔。3停电时，应认真核对所停电源是否正确，确认无误后方可操作。4 在标识不清时，不得随便停电，必须在查清确认后，方可停电。
 2、送错电源，造成检修中的设备损坏$1送电时，需同运行人员联系，并告知一起工作的其它人员。2送电时，严格按照操作票上的规定步骤进行，不能走错间隔。3送电时，应认真核对所送电源是否正确，确认无误后方可操作。4 在标识不清时，不得随便送电，必须在查清确认后，方可送电
@@ -1225,303 +1101,115 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4063</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>24小时内处理</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>故障检修</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>殷红</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>科林新#4机组</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4036</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>立刻</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>改进性检修</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>刘治国</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>丰泰#1机组</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>40LAE10AA304</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>标定#4机组锅炉B侧二级减温水电动调整门阀位行程</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>呼和浩特科林热电厂</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2018/11/01</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2018/11/01</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10LBA20AA503KA60</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>#1机组高调门最优阀序优化。</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>内蒙古丰泰发电厂</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2018/10/31</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2018/10/31</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>2659</v>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="P8" t="n">
+        <v>2639</v>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>热力机械工作票</t>
         </is>
       </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>殷红 周军 云雯</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>标定#4机组锅炉B侧二级减温水电动调整门阀位行程（#4炉B侧二级减温水平台）</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>刘治国、殷红</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>#1机组高调门最优阀序优化。</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>电气隔离</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>不停电</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>在此工作</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">热机票-1$隔离切换操作$1、#4炉运行人员将B侧二级减温水电动调整门切除自动。
-热机票-1$记录陈述$2、#4炉运行人员将B侧二级减温水电动调整门就地手动操作。
-热机票-1$记录陈述$3、#4炉运行人员加强相关参数监视，如有异常及时通知热工。
-热机票-2$记录陈述$无
-</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1、自动失灵$1 停电源时，要认真核实，以免将自动电源误停。2 对自动调节装置校验或检修时，首先应将自动切除，方可开始工作。3 加强对自动调节装置的定期试验、检查。4 自动调节设备出现问题时，运行人员应及时采取措施
-2、接线不当或检修不当造成自动无法投入、设备损坏$1 提高检修质量，加强设备验收工作。2 提高检修人员责任心，监护人员应认真监护，发挥作用。3 检修人员应熟知系统、装置的工作原理，逻辑与组态。4 检修过程严格按检修调校规程执行。5 调节系统设备检修前后一定要核对接线正确无误；检修过程一定要按照检修规程进行，以免造成自动无法投入、设备损坏。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4062</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>24小时内处理</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>殷红</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>40LAE10AA304</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>#4机组锅炉B侧二级减温水电动调整门33%处犯卡，无法关回。</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2018/11/01</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2018/11/02</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4036</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>立刻</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>改进性检修</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>刘治国</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>丰泰#1机组</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>热控专业</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>10LBA20AA503KA60</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>#1机组高调门最优阀序优化。</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>内蒙古丰泰发电厂</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2018/10/31</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2018/10/31</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>热控计算机</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>2639</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>热力机械工作票</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>刘治国、殷红</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>#1机组高调门最优阀序优化。</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>电气隔离</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>不停电</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>在此工作</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t xml:space="preserve">热机票-1$隔离切换操作$1、与#1机组运行人员联系。
 热机票-1$记录陈述$2、调整#1机高调门阀序时，要求#1机组运行人员切除AGC。
@@ -1532,244 +1220,122 @@
 </t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t xml:space="preserve">自动失灵$1 停电源时，要认真核实，以免将自动电源误停。2 对自动调节装置校验或检修时，首先应将自动切除，方可开始工作。3 加强对自动调节装置的定期试验、检查。4 自动调节设备出现问题时，运行人员应及时采取措施
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3952</v>
-      </c>
-      <c r="C12" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3947</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>状态检修</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>胡毅</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>王志英</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>丰泰#2机组</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>20BMA03GS001</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>#2机组热控交流电源柜开关检查。</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20CKB06EP001</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>#2机组DCS系统检查、主机清灰、程序备份。</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>内蒙古丰泰发电厂</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>2018/10/25</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>09:30</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2018/11/02</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2018/10/31</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>2577</v>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="P9" t="n">
+        <v>2574</v>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>热力机械工作票</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="R9" t="n">
         <v>2</v>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>胡毅、刘治国</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>#2机组热控交流电源柜开关检查。（#2机组电子间）</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>王志英、周军</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>#2机组DCS系统检查、主机清灰、程序备份。(#2机组集控室）</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>电气隔离</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>不停电</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>在此工作</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">热机票-1$隔离切换操作$1、与#2机组运行人员联系。
-热机票-2$隔离切换操作$无补充
-</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">触电$1 湿手不准操作电源开关。2检修、调校时，应随时防止身体触及电源及带电元器件。3不准带电拔、插插头和拆、接电源线。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3947</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>立刻</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>状态检修</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>王志英</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>丰泰#2机组</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>热控专业</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>20CKB06EP001</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>#2机组DCS系统检查、主机清灰、程序备份。</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>内蒙古丰泰发电厂</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2018/10/25</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2018/10/31</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>热控计算机</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>2574</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>热力机械工作票</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>王志英、周军</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>#2机组DCS系统检查、主机清灰、程序备份。(#2机组集控室）</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>电气隔离</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>停运</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>禁止操作，有人工作</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t xml:space="preserve">热机票-1$隔离切换操作$1、与#2机组运行人员联系。
 热机票-1$记录陈述$2、逐台停#2机组DCS系统主机电源（热控自理）
@@ -1777,7 +1343,7 @@
 </t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t xml:space="preserve">1、停错电源造成表计无法监视，自动失灵，保护误动$1 停电时，需同运行人员联系。2停电时，严格按照操作票上的规定步骤进行，不能走错间隔。3停电时，应认真核对所停电源是否正确，确认无误后方可操作。4 在标识不清时，不得随便停电，必须在查清确认后，方可停电。
 2、送错电源，造成检修中的设备损坏$1送电时，需同运行人员联系，并告知一起工作的其它人员。2送电时，严格按照操作票上的规定步骤进行，不能走错间隔。3送电时，应认真核对所送电源是否正确，确认无误后方可操作。4 在标识不清时，不得随便送电，必须在查清确认后，方可送电
@@ -1785,115 +1351,115 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="10">
+      <c r="A10" t="n">
         <v>14</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B10" t="n">
         <v>3764</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>改进性检修</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>殷红</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>科林新#4机组</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>40LAE10AA302</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>#4机组锅炉A、B侧一级减温水电动调整门阀位行程标定</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>呼和浩特科林热电厂</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>2018/10/11</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>09:40</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2018/10/11</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P14" t="n">
+      <c r="P10" t="n">
         <v>2473</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>热力机械工作票</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>殷红 胡毅 周军</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>#4机组锅炉A、B侧一级减温水电动调整门阀位行程标定（#4炉一级减温水平台）</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>电气隔离</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>不停电</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>在此工作</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t xml:space="preserve">热机票-1$隔离切换操作$1、#4炉运行人员将A、B侧一级减温水电动调整门切除自动。
 热机票-1$记录陈述$2、标定#4炉A、B侧一级减温水电动调整门时，要求运行人员注意温度监视，如有异常及时通知热工。
@@ -1902,7 +1468,7 @@
 </t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t xml:space="preserve">1、自动失灵$1 停电源时，要认真核实，以免将自动电源误停。2 对自动调节装置校验或检修时，首先应将自动切除，方可开始工作。3 加强对自动调节装置的定期试验、检查。4 自动调节设备出现问题时，运行人员应及时采取措施
 2、接线不当或检修不当造成自动无法投入、设备损坏$1 提高检修质量，加强设备验收工作。2 提高检修人员责任心，监护人员应认真监护，发挥作用。3 检修人员应熟知系统、装置的工作原理，逻辑与组态。4 检修过程严格按检修调校规程执行。5 调节系统设备检修前后一定要核对接线正确无误；检修过程一定要按照检修规程进行，以免造成自动无法投入、设备损坏。
@@ -1910,281 +1476,281 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>15</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B11" t="n">
         <v>3741</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>定期工作</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>王志英</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>科林新#4机组</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>40HFB10GX001-S32</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>35万机组#4炉给煤机系统检查</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>呼和浩特科林热电厂</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>2018/10/11</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2018/10/11</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="12">
+      <c r="A12" t="n">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B12" t="n">
         <v>3709</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>定期工作</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>王志英</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>科林新#3机组</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>30CXD01GX001</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>#3机组锅炉给煤机系统检查</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>呼和浩特科林热电厂</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>2018/10/08</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2018/10/08</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="13">
+      <c r="A13" t="n">
         <v>17</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B13" t="n">
         <v>3645</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>改进性检修</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>刘治国</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>丰泰#2机组</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>20CKB06</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>#2机组DEH高调门阀位控制参数修改</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>内蒙古丰泰发电厂</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>2018/09/29</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2018/09/29</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P17" t="n">
+      <c r="P13" t="n">
         <v>2384</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>热力机械工作票</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="R13" t="n">
         <v>2</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>刘治国  殷红</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>#2机组DEH高调门阀位控制参数修改（#2机组工程师站）</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>电气隔离</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>不停电</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>在此工作</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t xml:space="preserve">热机票-1$隔离切换操作$1、要求#2机运行人员解除AGC,CCS,将順阀切为单阀运行。
 热机票-1$记录陈述$2、修改#2机高调门阀位控制参数时，要求#2机运行人员加强相关参数监视，如有异常及时通知热工。
@@ -2192,7 +1758,7 @@
 </t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t xml:space="preserve">1、自动失灵$1 停电源时，要认真核实，以免将自动电源误停。2 对自动调节装置校验或检修时，首先应将自动切除，方可开始工作。3 加强对自动调节装置的定期试验、检查。4 自动调节设备出现问题时，运行人员应及时采取措施
 2、接线不当或检修不当造成自动无法投入、设备损坏$1 提高检修质量，加强设备验收工作。2 提高检修人员责任心，监护人员应认真监护，发挥作用。3 检修人员应熟知系统、装置的工作原理，逻辑与组态。4 检修过程严格按检修调校规程执行。5 调节系统设备检修前后一定要核对接线正确无误；检修过程一定要按照检修规程进行，以免造成自动无法投入、设备损坏。
@@ -2200,198 +1766,198 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="14">
+      <c r="A14" t="n">
         <v>18</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B14" t="n">
         <v>3594</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>定期工作</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>刘治国</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>科林新#4机组</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>40HFB50GX001-S32</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>#4炉E给煤机定度。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>呼和浩特科林热电厂</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>2018/09/27</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>11:30</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>2018/10/06</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="15">
+      <c r="A15" t="n">
         <v>19</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B15" t="n">
         <v>3584</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>定期工作</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>周军</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>科林新#4机组</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>40CEA04EP002</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>#4机组锅炉承压检漏系统检查。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>呼和浩特科林热电厂</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>2018/09/27</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>2018/10/05</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P19" t="n">
+      <c r="P15" t="n">
         <v>2323</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>热力机械工作票</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="R15" t="n">
         <v>2</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>周军、胡毅</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>#4机组锅炉承压检漏系统检查。(#4炉电子间）</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>电气隔离</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>停电</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>禁止操作，有人工作</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t xml:space="preserve">热机票-1$隔离切换操作$1、与#4机组运行人员联系。
 热机票-1$记录陈述$2、停#4机组承压检漏主机电源。（热控自理）
@@ -2399,7 +1965,7 @@
 </t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t xml:space="preserve">1、人身坠落伤害$1 担任高处作业的人员必须身体健康。患有精神病、高血压、心脏病等不宜从事高处作业的人员，不准参加高处作业。发现工作人员饮酒、精神不振时，禁止登高作业。2 高处作业要先搭好脚手架或采取好防止坠落的措施，方可进行。3 在危险边沿工作，临空面应架设安全网或防护栏，工作人员必须戴安全带。
 2、触电$1. 停送电源时，应防止身体触及电源开关及其它设备的带电部分。2 湿手不准停送电源。3 停送电源时，应认真核对，确认无误后方可操作，以免停送错电源造成触电。4 对停电的热工表计及控制设备，检修前要验电。
@@ -2407,115 +1973,115 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>20</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B16" t="n">
         <v>3580</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>定期工作</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>王志英</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>科林新#4机组</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>40CKA12EP001</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>#4机组DCS系统主机检查、清灰。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>呼和浩特科林热电厂</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>2018/09/27</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>2018/09/30</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P20" t="n">
+      <c r="P16" t="n">
         <v>2320</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>热力机械工作票</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="R16" t="n">
         <v>3</v>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>王志英、周军、胡毅</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>#4机组DCS系统主机检查、清灰。(#4机组集控室）</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>电气隔离</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>停电</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>禁止操作，有人工作</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t xml:space="preserve">热机票-1$隔离切换操作$1、与#4机组运行人员联系。
 热机票-1$记录陈述$2、#4机组DCS系统主机逐台停电。（热工自理）
@@ -2523,7 +2089,7 @@
 </t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t xml:space="preserve">1、触电$1. 停送电源时，应防止身体触及电源开关及其它设备的带电部分。2 湿手不准停送电源。3 停送电源时，应认真核对，确认无误后方可操作，以免停送错电源造成触电。4 对停电的热工表计及控制设备，检修前要验电。
 2、停错电源造成表计无法监视，自动失灵，保护误动$1 停电时，需同运行人员联系。2停电时，严格按照操作票上的规定步骤进行，不能走错间隔。3停电时，应认真核对所停电源是否正确，确认无误后方可操作。4 在标识不清时，不得随便停电，必须在查清确认后，方可停电。
@@ -2531,355 +2097,88 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="17">
+      <c r="A17" t="n">
         <v>21</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B17" t="n">
         <v>3533</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>立刻</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>定期工作</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>王志英</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>科林公用</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>热控专业</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>K0BFS18GS004</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>35万机组输煤汽车采样主机检查。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>呼和浩特科林热电厂</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>2018/09/25</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>11:32</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>2018/09/25</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>18:00</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>23</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3455</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>立刻</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>定期工作</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>胡毅</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>科林新#3机组</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>热控专业</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>30GXD03GX001</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>#3炉B给煤机定度</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>呼和浩特科林热电厂</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2018/09/20</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2018/09/28</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>热控计算机</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>2252</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>热力机械工作票</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>胡毅、周军</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>#3炉B给煤机定度（#3炉给煤机平台）</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>电气及机械隔离</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>不停电</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>禁止操作，有人工作</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">热机票-1$隔离切换操作$1、要求#3炉运行人员停B磨煤机，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$2、要求#3炉运行人员停B给煤机，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$3、送#3炉B给煤机控制电源。并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$4、关闭#3机组锅炉B磨煤机热风隔绝门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$5、关闭#3机组锅炉B磨煤机热风调整门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$6、关闭#3机组锅炉B磨煤机混合风门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$7、关闭#3机组锅炉B磨煤机密封风门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$8、关闭#3机组锅炉B磨煤机入口一次冷风调节门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$9、关闭#3炉B给煤机密封风门，并挂"禁止操作，有人工作"警告牌。
-热机票-1$记录陈述$10、关闭#3机组锅炉B给煤机上插板门,并挂“禁止操作，有人工作”警告。
-热机票-1$记录陈述$11、开启#3炉B给煤机下插板门。
-热机票-1$记录陈述$12、开启#3炉B给煤机侧板门。（检修自理）
-热机票-2$记录陈述$1、无。
-</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1、人身伤害$1 在进行远方或就地操作时，应确认阀门及挡板无人检修方可进行工作。2 进行就地手动操作调整时，应有防止他人远方操作的措施。3 操作人与就地监护人应相互沟通，及时处理异常情况。
-2、拐轴、连杆损坏$1操作人与就地监护人应相互沟通，及时处理异常情况。2 定位滑块位置应固定牢固，不得随拐轴移动，开、关行程限位开关和力矩保护开关应动作良好。
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3452</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>立刻</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>定期工作</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>王志英</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>科林新#4机组</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>热控专业</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>40GXD03GX001</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>#4炉B给煤机定度</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>呼和浩特科林热电厂</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2018/09/18</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2018/09/18</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>热控计算机</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>2248</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>热力机械工作票</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>王志英、周军</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>#4炉B给煤机定度(#4炉给煤机平台）</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>电气及机械隔离</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>不停电</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>禁止操作，有人工作</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">热机票-1$隔离切换操作$1、要求#4炉运行人员停B磨煤机，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$2、要求#4炉运行人员停B给煤机，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$3、送#4炉B给煤机控制电源。并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$4、关闭#4机组锅炉B磨煤机热风隔绝门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$5、关闭#4机组锅炉B磨煤机热风调整门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$6、关闭#4机组锅炉B磨煤机混合风门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$7、关闭#4机组锅炉B磨煤机密封风门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$8、关闭#4机组锅炉B磨煤机入口一次冷风调节门，并挂“禁止操作，有人工作”警告牌。
-热机票-1$记录陈述$9、关闭#4炉B给煤机密封风门，并挂"禁止操作，有人工作"警告牌。
-热机票-1$记录陈述$10、关闭#4机组锅炉B给煤机上插板门,并挂“禁止操作，有人工作”警告。
-热机票-1$记录陈述$11、开启#4炉B给煤机下插板门。
-热机票-1$记录陈述$12、开启#4炉B给煤机侧板门。（检修自理）
-</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1、人身伤害$1 在进行远方或就地操作时，应确认阀门及挡板无人检修方可进行工作。2 进行就地手动操作调整时，应有防止他人远方操作的措施。3 操作人与就地监护人应相互沟通，及时处理异常情况。
-2、拐轴、连杆损坏$1操作人与就地监护人应相互沟通，及时处理异常情况。2 定位滑块位置应固定牢固，不得随拐轴移动，开、关行程限位开关和力矩保护开关应动作良好。
-</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/easy.xlsx
+++ b/data/easy.xlsx
@@ -66,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,6 +2112,290 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>22</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>立刻</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>故障检修</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>周军</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>科林新#4机组</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>热控专业</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>40HFB30GX001-S32</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>#4机组锅炉D给煤机断链开关检查。</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>呼和浩特科林热电厂</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2020/07/06</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>08:59</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2020/07/06</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>热控计算机</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1315</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>热力机械工作票</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>周军、车璐</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>#4机组锅炉D给煤机断链开关检查。（#4炉给煤机平台）</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>电气及机械隔离</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>停运</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>禁止操作，有人工作</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">热机票-1$隔离切换操作$1、#4炉D给煤机停运。并挂“禁操”
+热机票-1$记录陈述$2、#4炉D给煤机停电，并挂“禁止合闸，有人工作”警告牌。
+热机票-1$记录陈述$3、#4炉D磨煤机停运。并挂“禁操”
+热机票-1$记录陈述$4、#4炉D磨煤机停电，并挂“禁止合闸，有人工作”警告牌。
+热机票-1$记录陈述$5、关闭#4机组锅炉D磨煤机热风隔绝门，并挂“禁操”
+热机票-1$记录陈述$6、切断#4机组锅炉D磨煤机热风隔绝门气源。（检修自理）
+热机票-1$记录陈述$7、关闭#4机组锅炉D磨煤机热风调整门。
+热机票-1$记录陈述$8、切断#4机组锅炉D磨煤机热风调整门气源。（检修自理）
+热机票-1$记录陈述$9、关闭#4机组锅炉D磨煤机混合风门，并挂“禁操”
+热机票-1$记录陈述$10、切断#4机组锅炉D磨煤机混合风门气源。（检修自理）
+热机票-1$记录陈述$11、关闭#4机组锅炉D磨煤机密封风门，并挂“禁操”
+热机票-1$记录陈述$12、#4机组锅炉D磨煤机密封风门停电，并挂“禁止合闸，有人工作”警告牌。
+热机票-1$记录陈述$13、关闭#4机组锅炉D磨煤机入口一次冷风调节门。
+热机票-1$记录陈述$14、切断#4机组锅炉D磨煤机入口一次冷风调节门气源。(检修自理）
+热机票-1$记录陈述$15、关闭#4机组锅炉D给煤机密封风门，并挂“禁操”
+热机票-1$记录陈述$16、关闭#4机组锅炉D给煤机上插板门,并挂“禁操”
+热机票-1$记录陈述$17、关闭#4机组锅炉D给煤机下插板门,并挂“禁操”
+热机票-1$记录陈述$18、开启#4机组锅炉D给煤机侧板门。（检修自理）
+</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">人身伤害$1 在进行远方或就地操作时，应确认阀门及挡板无人检修方可进行工作。2 进行就地手动操作调整时，应有防止他人远方操作的措施。3 操作人与就地监护人应相互沟通，及时处理异常情况。
+机械绞伤、崩伤$1 工作时，必须穿合适的工作服，工作人员的工作服不应有可能被转动机械绞住的部分，袖口必须扣好；禁止戴围巾和穿长衣服；禁止穿凉鞋、拖鞋；女工作人员禁止穿裙子、高跟鞋；辫子、长发必须盘在帽内。2 在旋转机械旁工作，与转动部分保持一定距离，不可过于靠近。3 不准用抹布、棉纱等易绞住的物品擦拭离转动部分很近的热工表计。4 工器具要放在安全可靠的地方，使用中要拿好，以防掉入旋转部位。
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>24</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>立刻</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>故障检修</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>周军</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>科林新#4机组</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>热控专业</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>40CXD07EM001</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>#4机组锅炉D给煤机断链开关检查。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>呼和浩特科林热电厂</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2020/07/06</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>08:59</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2020/07/06</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>热控计算机</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1315</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>热力机械工作票</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>周军、车璐</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>#4机组锅炉D给煤机断链开关检查。（#4炉给煤机平台）</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>电气及机械隔离</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>停运</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>禁止操作，有人工作</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">热机票-1$隔离切换操作$1、#4炉D给煤机停运。并挂“禁操”
+热机票-1$记录陈述$2、#4炉D给煤机停电，并挂“禁止合闸，有人工作”警告牌。
+热机票-1$记录陈述$3、#4炉D磨煤机停运。并挂“禁操”
+热机票-1$记录陈述$4、#4炉D磨煤机停电，并挂“禁止合闸，有人工作”警告牌。
+热机票-1$记录陈述$5、关闭#4机组锅炉D磨煤机热风隔绝门，并挂“禁操”
+热机票-1$记录陈述$6、切断#4机组锅炉D磨煤机热风隔绝门气源。（检修自理）
+热机票-1$记录陈述$7、关闭#4机组锅炉D磨煤机热风调整门。
+热机票-1$记录陈述$8、切断#4机组锅炉D磨煤机热风调整门气源。（检修自理）
+热机票-1$记录陈述$9、关闭#4机组锅炉D磨煤机混合风门，并挂“禁操”
+热机票-1$记录陈述$10、切断#4机组锅炉D磨煤机混合风门气源。（检修自理）
+热机票-1$记录陈述$11、关闭#4机组锅炉D磨煤机密封风门，并挂“禁操”
+热机票-1$记录陈述$12、#4机组锅炉D磨煤机密封风门停电，并挂“禁止合闸，有人工作”警告牌。
+热机票-1$记录陈述$13、关闭#4机组锅炉D磨煤机入口一次冷风调节门。
+热机票-1$记录陈述$14、切断#4机组锅炉D磨煤机入口一次冷风调节门气源。(检修自理）
+热机票-1$记录陈述$15、关闭#4机组锅炉D给煤机密封风门，并挂“禁操”
+热机票-1$记录陈述$16、关闭#4机组锅炉D给煤机上插板门,并挂“禁操”
+热机票-1$记录陈述$17、关闭#4机组锅炉D给煤机下插板门,并挂“禁操”
+热机票-1$记录陈述$18、开启#4机组锅炉D给煤机后板门。（检修自理）
+</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">人身伤害$1 在进行远方或就地操作时，应确认阀门及挡板无人检修方可进行工作。2 进行就地手动操作调整时，应有防止他人远方操作的措施。3 操作人与就地监护人应相互沟通，及时处理异常情况。
+机械绞伤、崩伤$1 工作时，必须穿合适的工作服，工作人员的工作服不应有可能被转动机械绞住的部分，袖口必须扣好；禁止戴围巾和穿长衣服；禁止穿凉鞋、拖鞋；女工作人员禁止穿裙子、高跟鞋；辫子、长发必须盘在帽内。2 在旋转机械旁工作，与转动部分保持一定距离，不可过于靠近。3 不准用抹布、棉纱等易绞住的物品擦拭离转动部分很近的热工表计。4 工器具要放在安全可靠的地方，使用中要拿好，以防掉入旋转部位。
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/easy.xlsx
+++ b/data/easy.xlsx
@@ -66,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3221,10 +3289,8 @@
       <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="B22" t="n">
+        <v>10</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3291,20 +3357,16 @@
           <t>热控计算机</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1315.0</t>
-        </is>
+      <c r="P22" t="n">
+        <v>1315</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>热力机械工作票</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="R22" t="n">
+        <v>2</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>

--- a/data/easy.xlsx
+++ b/data/easy.xlsx
@@ -66,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3424,6 +3356,136 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>立刻</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>故障检修</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>周军</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>科林新#3机组</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>热控专业</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>30HFB40GX001-S32</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>#3机组锅炉D给煤机断链开关检查。</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>呼和浩特科林热电厂</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2020/07/28</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>15:53</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2020/07/28</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>热控计算机</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1315.0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>热力机械工作票</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>周军、车璐</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>#3机组锅炉D给煤机断链开关检查。（#3炉给煤机平台）</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>电气及机械隔离</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>停运</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>禁止操作，有人工作</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">热机票-1$隔离切换操作$1、#3炉D给煤机停运。并挂“禁操”
+热机票-1$记录陈述$2、#3炉D给煤机停电，并挂“禁止合闸，有人工作”警告牌。
+热机票-1$记录陈述$3、#3炉D磨煤机停运。并挂“禁操”
+</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">人身伤害$1 在进行远方或就地操作时，应确认阀门及挡板无人检修方可进行工作。2 进行就地手动操作调整时，应有防止他人远方操作的措施。3 操作人与就地监护人应相互沟通，及时处理异常情况。
+机械绞伤、崩伤$1 工作时，必须穿合适的工作服，工作人员的工作服不应有可能被转动机械绞住的部分，袖口必须扣好；禁止戴围巾和穿长衣服；禁止穿凉鞋、拖鞋；女工作人员禁止穿裙子、高跟鞋；辫子、长发必须盘在帽内。2 在旋转机械旁工作，与转动部分保持一定距离，不可过于靠近。3 不准用抹布、棉纱等易绞住的物品擦拭离转动部分很近的热工表计。4 工器具要放在安全可靠的地方，使用中要拿好，以防掉入旋转部位。
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
